--- a/VolumeRenderer/energy_function_CT-Knee.xlsx
+++ b/VolumeRenderer/energy_function_CT-Knee.xlsx
@@ -2098,1507 +2098,1507 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="501"/>
                 <c:pt idx="0">
-                  <c:v>2.4767299999999999E-3</c:v>
+                  <c:v>6.35857E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.41895E-3</c:v>
+                  <c:v>6.2065499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3624399999999999E-3</c:v>
+                  <c:v>6.0579500000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.30722E-3</c:v>
+                  <c:v>5.9127600000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2532799999999999E-3</c:v>
+                  <c:v>5.7709900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.20061E-3</c:v>
+                  <c:v>5.6328400000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1492400000000002E-3</c:v>
+                  <c:v>5.4979E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0991299999999998E-3</c:v>
+                  <c:v>5.3665800000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.05032E-3</c:v>
+                  <c:v>5.2384600000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.00278E-3</c:v>
+                  <c:v>5.1139699999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.9565300000000002E-3</c:v>
+                  <c:v>4.9926800000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.9442400000000001E-3</c:v>
+                  <c:v>4.96453E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.89923E-3</c:v>
+                  <c:v>4.8465100000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.887E-3</c:v>
+                  <c:v>4.8184899999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.87488E-3</c:v>
+                  <c:v>4.7905200000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.8628500000000001E-3</c:v>
+                  <c:v>4.7630499999999996E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.85092E-3</c:v>
+                  <c:v>4.7356300000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.80704E-3</c:v>
+                  <c:v>4.6206700000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.79517E-3</c:v>
+                  <c:v>4.5933900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7834000000000001E-3</c:v>
+                  <c:v>4.5665899999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.77173E-3</c:v>
+                  <c:v>4.5398399999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7290199999999999E-3</c:v>
+                  <c:v>4.4278800000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7174099999999999E-3</c:v>
+                  <c:v>4.4012699999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7059E-3</c:v>
+                  <c:v>4.3751500000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6944900000000001E-3</c:v>
+                  <c:v>4.34908E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.6831699999999999E-3</c:v>
+                  <c:v>4.32351E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.6416E-3</c:v>
+                  <c:v>4.2141799999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.6303400000000001E-3</c:v>
+                  <c:v>4.1887399999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.61919E-3</c:v>
+                  <c:v>4.1633499999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.6081299999999999E-3</c:v>
+                  <c:v>4.1384500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.56773E-3</c:v>
+                  <c:v>4.0321200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5567300000000001E-3</c:v>
+                  <c:v>4.0073499999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.54583E-3</c:v>
+                  <c:v>3.98264E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.5350299999999999E-3</c:v>
+                  <c:v>3.9584199999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.5243399999999999E-3</c:v>
+                  <c:v>3.9342500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.4850600000000001E-3</c:v>
+                  <c:v>3.8309899999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4744300000000001E-3</c:v>
+                  <c:v>3.8069599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.4638800000000001E-3</c:v>
+                  <c:v>3.7834100000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.45345E-3</c:v>
+                  <c:v>3.7599199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.41534E-3</c:v>
+                  <c:v>3.65965E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.40496E-3</c:v>
+                  <c:v>3.6362899999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3946799999999999E-3</c:v>
+                  <c:v>3.6134299999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3845000000000001E-3</c:v>
+                  <c:v>3.5906200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.37441E-3</c:v>
+                  <c:v>3.5682999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3374400000000001E-3</c:v>
+                  <c:v>3.47066E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3274199999999999E-3</c:v>
+                  <c:v>3.4484699999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3175000000000001E-3</c:v>
+                  <c:v>3.42633E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3076699999999999E-3</c:v>
+                  <c:v>3.4046900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.27187E-3</c:v>
+                  <c:v>3.3100400000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2620999999999999E-3</c:v>
+                  <c:v>3.28853E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2524400000000001E-3</c:v>
+                  <c:v>3.2670799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2428700000000001E-3</c:v>
+                  <c:v>3.24611E-3</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2333999999999999E-3</c:v>
+                  <c:v>3.2252000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1987300000000001E-3</c:v>
+                  <c:v>3.1336200000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.1893299999999999E-3</c:v>
+                  <c:v>3.11284E-3</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.1800199999999999E-3</c:v>
+                  <c:v>3.0925499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.17081E-3</c:v>
+                  <c:v>3.0723199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.1616899999999999E-3</c:v>
+                  <c:v>3.0525800000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.12816E-3</c:v>
+                  <c:v>2.9636300000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.11911E-3</c:v>
+                  <c:v>2.9440199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.11016E-3</c:v>
+                  <c:v>2.9244700000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.1012999999999999E-3</c:v>
+                  <c:v>2.9053999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.06894E-3</c:v>
+                  <c:v>2.8194399999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.06014E-3</c:v>
+                  <c:v>2.80051E-3</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.05145E-3</c:v>
+                  <c:v>2.7816400000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0428499999999999E-3</c:v>
+                  <c:v>2.7632500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.03436E-3</c:v>
+                  <c:v>2.7449200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.0031199999999999E-3</c:v>
+                  <c:v>2.6620300000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.946899999999999E-4</c:v>
+                  <c:v>2.6438299999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>9.8635099999999989E-4</c:v>
+                  <c:v>2.62612E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>9.7811600000000001E-4</c:v>
+                  <c:v>2.6084599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>9.4804899999999996E-4</c:v>
+                  <c:v>2.5285699999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>9.3987499999999996E-4</c:v>
+                  <c:v>2.5110499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>9.31794E-4</c:v>
+                  <c:v>2.4940100000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>9.2381699999999995E-4</c:v>
+                  <c:v>2.4770399999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>9.1593299999999996E-4</c:v>
+                  <c:v>2.4605500000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>8.8700400000000005E-4</c:v>
+                  <c:v>2.3832900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.7918100000000004E-4</c:v>
+                  <c:v>2.3669300000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>8.7146200000000004E-4</c:v>
+                  <c:v>2.3506299999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8.63837E-4</c:v>
+                  <c:v>2.33482E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8.3607699999999996E-4</c:v>
+                  <c:v>2.2605500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8.2851300000000001E-4</c:v>
+                  <c:v>2.2448699999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8.2105299999999997E-4</c:v>
+                  <c:v>2.2292499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.1368599999999999E-4</c:v>
+                  <c:v>2.21412E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8.0642300000000001E-4</c:v>
+                  <c:v>2.1990500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>7.7979099999999995E-4</c:v>
+                  <c:v>2.1278400000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.7258800000000005E-4</c:v>
+                  <c:v>2.1129E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>7.6548000000000002E-4</c:v>
+                  <c:v>2.09844E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>7.5847499999999999E-4</c:v>
+                  <c:v>2.0840500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>7.3301300000000002E-4</c:v>
+                  <c:v>2.0158300000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>7.2606899999999998E-4</c:v>
+                  <c:v>2.0015699999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>7.19219E-4</c:v>
+                  <c:v>1.9877900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>7.1247200000000002E-4</c:v>
+                  <c:v>1.9740700000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.05819E-4</c:v>
+                  <c:v>1.9608400000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.8149400000000005E-4</c:v>
+                  <c:v>1.89526E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.7490200000000001E-4</c:v>
+                  <c:v>1.8821599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.6841399999999999E-4</c:v>
+                  <c:v>1.8691199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.6201900000000002E-4</c:v>
+                  <c:v>1.8565599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.3886499999999996E-4</c:v>
+                  <c:v>1.7939799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.3253099999999998E-4</c:v>
+                  <c:v>1.78155E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.2630100000000001E-4</c:v>
+                  <c:v>1.7691899999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.20165E-4</c:v>
+                  <c:v>1.75731E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.1413199999999998E-4</c:v>
+                  <c:v>1.7454899999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.92105E-4</c:v>
+                  <c:v>1.68597E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.8613299999999997E-4</c:v>
+                  <c:v>1.67428E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.8025500000000001E-4</c:v>
+                  <c:v>1.6630900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.7448099999999995E-4</c:v>
+                  <c:v>1.65194E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.5362300000000005E-4</c:v>
+                  <c:v>1.59542E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.4790999999999998E-4</c:v>
+                  <c:v>1.5843999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>5.4228999999999996E-4</c:v>
+                  <c:v>1.5738799999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>5.3677399999999995E-4</c:v>
+                  <c:v>1.56342E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5.3135200000000002E-4</c:v>
+                  <c:v>1.5534500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>5.1163200000000004E-4</c:v>
+                  <c:v>1.4995500000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>5.0626999999999996E-4</c:v>
+                  <c:v>1.48971E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.0101300000000002E-4</c:v>
+                  <c:v>1.47992E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.9584900000000003E-4</c:v>
+                  <c:v>1.47062E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.9078800000000003E-4</c:v>
+                  <c:v>1.46138E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.7219500000000001E-4</c:v>
+                  <c:v>1.41055E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.6719600000000002E-4</c:v>
+                  <c:v>1.4014400000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.6229000000000002E-4</c:v>
+                  <c:v>1.3928199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4.5748799999999998E-4</c:v>
+                  <c:v>1.38426E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.4006500000000001E-4</c:v>
+                  <c:v>1.3364200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.3532400000000001E-4</c:v>
+                  <c:v>1.32799E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.3067700000000002E-4</c:v>
+                  <c:v>1.3200499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.2613299999999998E-4</c:v>
+                  <c:v>1.3121599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4.2168300000000001E-4</c:v>
+                  <c:v>1.30477E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4.0539800000000001E-4</c:v>
+                  <c:v>1.2595600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4.0100900000000002E-4</c:v>
+                  <c:v>1.2523E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>3.9672299999999998E-4</c:v>
+                  <c:v>1.2450899999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.92531E-4</c:v>
+                  <c:v>1.2383699999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>3.9082500000000003E-4</c:v>
+                  <c:v>1.23515E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.8913199999999999E-4</c:v>
+                  <c:v>1.2321999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.7398999999999999E-4</c:v>
+                  <c:v>1.1898900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>3.6985300000000001E-4</c:v>
+                  <c:v>1.1832800000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>3.68165E-4</c:v>
+                  <c:v>1.18009E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.6648900000000001E-4</c:v>
+                  <c:v>1.17717E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>3.6483400000000002E-4</c:v>
+                  <c:v>1.1740800000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>3.6078599999999998E-4</c:v>
+                  <c:v>1.16771E-3</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>3.59145E-4</c:v>
+                  <c:v>1.1646600000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>3.57516E-4</c:v>
+                  <c:v>1.16187E-3</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>3.5356500000000002E-4</c:v>
+                  <c:v>1.1555199999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>3.51949E-4</c:v>
+                  <c:v>1.15277E-3</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.50355E-4</c:v>
+                  <c:v>1.14985E-3</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.4877399999999999E-4</c:v>
+                  <c:v>1.14719E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.4491099999999999E-4</c:v>
+                  <c:v>1.14108E-3</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3079300000000002E-4</c:v>
+                  <c:v>1.10144E-3</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.2921600000000001E-4</c:v>
+                  <c:v>1.09855E-3</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>3.27652E-4</c:v>
+                  <c:v>1.09593E-3</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.23844E-4</c:v>
+                  <c:v>1.08993E-3</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>3.2229399999999999E-4</c:v>
+                  <c:v>1.08734E-3</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>3.2076400000000002E-4</c:v>
+                  <c:v>1.0845900000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>3.17044E-4</c:v>
+                  <c:v>1.07905E-3</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.1552899999999999E-4</c:v>
+                  <c:v>1.0763299999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>3.14025E-4</c:v>
+                  <c:v>1.07387E-3</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.1254299999999998E-4</c:v>
+                  <c:v>1.0712499999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.08912E-4</c:v>
+                  <c:v>1.06595E-3</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>3.0744399999999998E-4</c:v>
+                  <c:v>1.06336E-3</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>3.0598799999999998E-4</c:v>
+                  <c:v>1.0610299999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.9292599999999999E-4</c:v>
+                  <c:v>1.0237200000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>2.8935000000000001E-4</c:v>
+                  <c:v>1.01852E-3</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>2.8789899999999999E-4</c:v>
+                  <c:v>1.0159699999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>2.8645999999999999E-4</c:v>
+                  <c:v>1.0136800000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>2.85042E-4</c:v>
+                  <c:v>1.01121E-3</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>2.8155500000000001E-4</c:v>
+                  <c:v>1.0062599999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>2.8015100000000002E-4</c:v>
+                  <c:v>1.00383E-3</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>2.7876000000000002E-4</c:v>
+                  <c:v>1.0016700000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>2.7536900000000003E-4</c:v>
+                  <c:v>9.9674300000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.7399100000000001E-4</c:v>
+                  <c:v>9.94621E-4</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.7263500000000002E-4</c:v>
+                  <c:v>9.9232500000000006E-4</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>2.7128999999999999E-4</c:v>
+                  <c:v>9.9029900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>2.67989E-4</c:v>
+                  <c:v>9.8560399999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>2.5595000000000001E-4</c:v>
+                  <c:v>9.5096199999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>2.5461100000000002E-4</c:v>
+                  <c:v>9.4870000000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>2.53284E-4</c:v>
+                  <c:v>9.4670799999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>2.5003699999999999E-4</c:v>
+                  <c:v>9.4211999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>2.4872400000000003E-4</c:v>
+                  <c:v>9.4016300000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.4743200000000001E-4</c:v>
+                  <c:v>9.3803300000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.4615200000000002E-4</c:v>
+                  <c:v>9.3617099999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.4299400000000001E-4</c:v>
+                  <c:v>9.3181899999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.41728E-4</c:v>
+                  <c:v>9.2999300000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>2.4048400000000001E-4</c:v>
+                  <c:v>9.2799400000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.3741300000000001E-4</c:v>
+                  <c:v>9.2411100000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>2.3618200000000001E-4</c:v>
+                  <c:v>9.2214800000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>2.3496300000000001E-4</c:v>
+                  <c:v>9.20453E-4</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>2.23981E-4</c:v>
+                  <c:v>8.8813399999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.2096600000000001E-4</c:v>
+                  <c:v>8.8435800000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>2.1975200000000001E-4</c:v>
+                  <c:v>8.8242799999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>2.1855099999999999E-4</c:v>
+                  <c:v>8.8076699999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>2.17412E-4</c:v>
+                  <c:v>8.7945099999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>2.1448499999999999E-4</c:v>
+                  <c:v>8.7590699999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>2.13358E-4</c:v>
+                  <c:v>8.7461799999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.1235899999999999E-4</c:v>
+                  <c:v>8.7279600000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.0968500000000001E-4</c:v>
+                  <c:v>8.6922599999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>2.0871E-4</c:v>
+                  <c:v>8.6746999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>2.0775500000000001E-4</c:v>
+                  <c:v>8.6577500000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>2.0682200000000001E-4</c:v>
+                  <c:v>8.6414100000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>2.0425799999999999E-4</c:v>
+                  <c:v>8.6087700000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>2.0334800000000001E-4</c:v>
+                  <c:v>8.5930900000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.93592E-4</c:v>
+                  <c:v>8.2952899999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.9269900000000001E-4</c:v>
+                  <c:v>8.2800300000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.9021500000000001E-4</c:v>
+                  <c:v>8.2493099999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.89345E-4</c:v>
+                  <c:v>8.2346999999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.8849599999999999E-4</c:v>
+                  <c:v>8.2207099999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.8766799999999999E-4</c:v>
+                  <c:v>8.2073400000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>1.8529500000000001E-4</c:v>
+                  <c:v>8.1796699999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>1.8448999999999999E-4</c:v>
+                  <c:v>8.1669499999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.8370600000000001E-4</c:v>
+                  <c:v>8.1548500000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.8144100000000001E-4</c:v>
+                  <c:v>8.13019E-4</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.8068000000000001E-4</c:v>
+                  <c:v>8.1187499999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.79941E-4</c:v>
+                  <c:v>8.1079199999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.7136000000000001E-4</c:v>
+                  <c:v>7.8398699999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.6917599999999999E-4</c:v>
+                  <c:v>7.8171399999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1.68455E-4</c:v>
+                  <c:v>7.8067700000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>1.6775500000000001E-4</c:v>
+                  <c:v>7.7970100000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>1.6707700000000001E-4</c:v>
+                  <c:v>7.7878699999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.6500299999999999E-4</c:v>
+                  <c:v>7.7681899999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1.6434699999999999E-4</c:v>
+                  <c:v>7.7596999999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>1.6371300000000001E-4</c:v>
+                  <c:v>7.7518300000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>1.6174700000000001E-4</c:v>
+                  <c:v>7.7351600000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1.6113600000000001E-4</c:v>
+                  <c:v>7.7279499999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1.6054599999999999E-4</c:v>
+                  <c:v>7.7213499999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1.59977E-4</c:v>
+                  <c:v>7.7153599999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1.5812199999999999E-4</c:v>
+                  <c:v>7.7017399999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1.5757600000000001E-4</c:v>
+                  <c:v>7.6964199999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>1.5013799999999999E-4</c:v>
+                  <c:v>7.4568499999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>1.4960900000000001E-4</c:v>
+                  <c:v>7.4519400000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>1.5530399999999999E-4</c:v>
+                  <c:v>7.68109E-4</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>1.4783400000000001E-4</c:v>
+                  <c:v>7.4402500000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>1.5480299999999999E-4</c:v>
+                  <c:v>7.6770400000000002E-4</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>1.4732800000000001E-4</c:v>
+                  <c:v>7.4359899999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>1.54322E-4</c:v>
+                  <c:v>7.6736000000000003E-4</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>1.4684299999999999E-4</c:v>
+                  <c:v>7.4323499999999997E-4</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1.5386299999999999E-4</c:v>
+                  <c:v>7.6707700000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.46379E-4</c:v>
+                  <c:v>7.4293299999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1.5222599999999999E-4</c:v>
+                  <c:v>7.6632100000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1.4471500000000001E-4</c:v>
+                  <c:v>7.4206900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1.5179000000000001E-4</c:v>
+                  <c:v>7.6610399999999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>1.4427400000000001E-4</c:v>
+                  <c:v>7.4183199999999999E-4</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>1.5137500000000001E-4</c:v>
+                  <c:v>7.6594900000000004E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3613,11 +3613,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="546692416"/>
-        <c:axId val="546691840"/>
+        <c:axId val="550259520"/>
+        <c:axId val="550258944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="546692416"/>
+        <c:axId val="550259520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,12 +3627,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546691840"/>
+        <c:crossAx val="550258944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="546691840"/>
+        <c:axId val="550258944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3643,7 +3643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="546692416"/>
+        <c:crossAx val="550259520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>2.4767299999999999E-3</v>
+        <v>6.35857E-3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.41895E-3</v>
+        <v>6.2065499999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -4016,7 +4016,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.3624399999999999E-3</v>
+        <v>6.0579500000000003E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -4024,7 +4024,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.30722E-3</v>
+        <v>5.9127600000000004E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -4032,7 +4032,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2532799999999999E-3</v>
+        <v>5.7709900000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -4040,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.20061E-3</v>
+        <v>5.6328400000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4048,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.1492400000000002E-3</v>
+        <v>5.4979E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -4056,7 +4056,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.0991299999999998E-3</v>
+        <v>5.3665800000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -4064,7 +4064,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.05032E-3</v>
+        <v>5.2384600000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -4072,7 +4072,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.00278E-3</v>
+        <v>5.1139699999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -4080,7 +4080,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.9565300000000002E-3</v>
+        <v>4.9926800000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -4088,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.9442400000000001E-3</v>
+        <v>4.96453E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -4096,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.89923E-3</v>
+        <v>4.8465100000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -4104,7 +4104,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.887E-3</v>
+        <v>4.8184899999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -4112,7 +4112,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.87488E-3</v>
+        <v>4.7905200000000004E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -4120,7 +4120,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1.8628500000000001E-3</v>
+        <v>4.7630499999999996E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -4128,7 +4128,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1.85092E-3</v>
+        <v>4.7356300000000002E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -4136,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.80704E-3</v>
+        <v>4.6206700000000003E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -4144,7 +4144,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.79517E-3</v>
+        <v>4.5933900000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -4152,7 +4152,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.7834000000000001E-3</v>
+        <v>4.5665899999999997E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -4160,7 +4160,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.77173E-3</v>
+        <v>4.5398399999999998E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -4168,7 +4168,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.7290199999999999E-3</v>
+        <v>4.4278800000000004E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -4176,7 +4176,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.7174099999999999E-3</v>
+        <v>4.4012699999999997E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -4184,7 +4184,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.7059E-3</v>
+        <v>4.3751500000000004E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -4192,7 +4192,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.6944900000000001E-3</v>
+        <v>4.34908E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -4200,7 +4200,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>1.6831699999999999E-3</v>
+        <v>4.32351E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -4208,7 +4208,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1.6416E-3</v>
+        <v>4.2141799999999997E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -4216,7 +4216,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1.6303400000000001E-3</v>
+        <v>4.1887399999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -4224,7 +4224,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>1.61919E-3</v>
+        <v>4.1633499999999997E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -4232,7 +4232,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>1.6081299999999999E-3</v>
+        <v>4.1384500000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -4240,7 +4240,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.56773E-3</v>
+        <v>4.0321200000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -4248,7 +4248,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1.5567300000000001E-3</v>
+        <v>4.0073499999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -4256,7 +4256,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>1.54583E-3</v>
+        <v>3.98264E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -4264,7 +4264,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1.5350299999999999E-3</v>
+        <v>3.9584199999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -4272,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.5243399999999999E-3</v>
+        <v>3.9342500000000002E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -4280,7 +4280,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1.4850600000000001E-3</v>
+        <v>3.8309899999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -4288,7 +4288,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1.4744300000000001E-3</v>
+        <v>3.8069599999999999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -4296,7 +4296,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1.4638800000000001E-3</v>
+        <v>3.7834100000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -4304,7 +4304,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.45345E-3</v>
+        <v>3.7599199999999999E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -4312,7 +4312,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1.41534E-3</v>
+        <v>3.65965E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -4320,7 +4320,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1.40496E-3</v>
+        <v>3.6362899999999999E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -4328,7 +4328,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1.3946799999999999E-3</v>
+        <v>3.6134299999999999E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1.3845000000000001E-3</v>
+        <v>3.5906200000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -4344,7 +4344,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1.37441E-3</v>
+        <v>3.5682999999999999E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -4352,7 +4352,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1.3374400000000001E-3</v>
+        <v>3.47066E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -4360,7 +4360,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1.3274199999999999E-3</v>
+        <v>3.4484699999999999E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -4368,7 +4368,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1.3175000000000001E-3</v>
+        <v>3.42633E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -4376,7 +4376,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1.3076699999999999E-3</v>
+        <v>3.4046900000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -4384,7 +4384,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1.27187E-3</v>
+        <v>3.3100400000000002E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -4392,7 +4392,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1.2620999999999999E-3</v>
+        <v>3.28853E-3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -4400,7 +4400,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1.2524400000000001E-3</v>
+        <v>3.2670799999999999E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -4408,7 +4408,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1.2428700000000001E-3</v>
+        <v>3.24611E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -4416,7 +4416,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1.2333999999999999E-3</v>
+        <v>3.2252000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -4424,7 +4424,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1.1987300000000001E-3</v>
+        <v>3.1336200000000002E-3</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -4432,7 +4432,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1.1893299999999999E-3</v>
+        <v>3.11284E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -4440,7 +4440,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1.1800199999999999E-3</v>
+        <v>3.0925499999999999E-3</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -4448,7 +4448,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1.17081E-3</v>
+        <v>3.0723199999999999E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -4456,7 +4456,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1.1616899999999999E-3</v>
+        <v>3.0525800000000001E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -4464,7 +4464,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1.12816E-3</v>
+        <v>2.9636300000000001E-3</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -4472,7 +4472,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1.11911E-3</v>
+        <v>2.9440199999999999E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -4480,7 +4480,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1.11016E-3</v>
+        <v>2.9244700000000002E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -4488,7 +4488,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1.1012999999999999E-3</v>
+        <v>2.9053999999999998E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -4496,7 +4496,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1.06894E-3</v>
+        <v>2.8194399999999999E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -4504,7 +4504,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1.06014E-3</v>
+        <v>2.80051E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -4512,7 +4512,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1.05145E-3</v>
+        <v>2.7816400000000002E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -4520,7 +4520,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1.0428499999999999E-3</v>
+        <v>2.7632500000000001E-3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -4528,7 +4528,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1.03436E-3</v>
+        <v>2.7449200000000001E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -4536,7 +4536,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1.0031199999999999E-3</v>
+        <v>2.6620300000000001E-3</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -4544,7 +4544,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>9.946899999999999E-4</v>
+        <v>2.6438299999999998E-3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -4552,7 +4552,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>9.8635099999999989E-4</v>
+        <v>2.62612E-3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -4560,7 +4560,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>9.7811600000000001E-4</v>
+        <v>2.6084599999999999E-3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -4568,7 +4568,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>9.4804899999999996E-4</v>
+        <v>2.5285699999999999E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -4576,7 +4576,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>9.3987499999999996E-4</v>
+        <v>2.5110499999999999E-3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -4584,7 +4584,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>9.31794E-4</v>
+        <v>2.4940100000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -4592,7 +4592,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>9.2381699999999995E-4</v>
+        <v>2.4770399999999998E-3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -4600,7 +4600,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>9.1593299999999996E-4</v>
+        <v>2.4605500000000002E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -4608,7 +4608,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>8.8700400000000005E-4</v>
+        <v>2.3832900000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -4616,7 +4616,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>8.7918100000000004E-4</v>
+        <v>2.3669300000000002E-3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -4624,7 +4624,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>8.7146200000000004E-4</v>
+        <v>2.3506299999999998E-3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -4632,7 +4632,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>8.63837E-4</v>
+        <v>2.33482E-3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -4640,7 +4640,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>8.3607699999999996E-4</v>
+        <v>2.2605500000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -4648,7 +4648,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>8.2851300000000001E-4</v>
+        <v>2.2448699999999999E-3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -4656,7 +4656,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>8.2105299999999997E-4</v>
+        <v>2.2292499999999999E-3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -4664,7 +4664,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>8.1368599999999999E-4</v>
+        <v>2.21412E-3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -4672,7 +4672,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>8.0642300000000001E-4</v>
+        <v>2.1990500000000001E-3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -4680,7 +4680,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7.7979099999999995E-4</v>
+        <v>2.1278400000000002E-3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -4688,7 +4688,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7.7258800000000005E-4</v>
+        <v>2.1129E-3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -4696,7 +4696,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7.6548000000000002E-4</v>
+        <v>2.09844E-3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -4704,7 +4704,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7.5847499999999999E-4</v>
+        <v>2.0840500000000001E-3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -4712,7 +4712,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7.3301300000000002E-4</v>
+        <v>2.0158300000000001E-3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -4720,7 +4720,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7.2606899999999998E-4</v>
+        <v>2.0015699999999998E-3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -4728,7 +4728,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7.19219E-4</v>
+        <v>1.9877900000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -4736,7 +4736,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7.1247200000000002E-4</v>
+        <v>1.9740700000000001E-3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -4744,7 +4744,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7.05819E-4</v>
+        <v>1.9608400000000002E-3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -4752,7 +4752,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>6.8149400000000005E-4</v>
+        <v>1.89526E-3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -4760,7 +4760,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>6.7490200000000001E-4</v>
+        <v>1.8821599999999999E-3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -4768,7 +4768,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>6.6841399999999999E-4</v>
+        <v>1.8691199999999999E-3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -4776,7 +4776,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>6.6201900000000002E-4</v>
+        <v>1.8565599999999999E-3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -4784,7 +4784,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>6.3886499999999996E-4</v>
+        <v>1.7939799999999999E-3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -4792,7 +4792,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>6.3253099999999998E-4</v>
+        <v>1.78155E-3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -4800,7 +4800,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>6.2630100000000001E-4</v>
+        <v>1.7691899999999999E-3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -4808,7 +4808,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>6.20165E-4</v>
+        <v>1.75731E-3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -4816,7 +4816,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>6.1413199999999998E-4</v>
+        <v>1.7454899999999999E-3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -4824,7 +4824,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>5.92105E-4</v>
+        <v>1.68597E-3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -4832,7 +4832,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>5.8613299999999997E-4</v>
+        <v>1.67428E-3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -4840,7 +4840,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>5.8025500000000001E-4</v>
+        <v>1.6630900000000001E-3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -4848,7 +4848,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>5.7448099999999995E-4</v>
+        <v>1.65194E-3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -4856,7 +4856,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>5.5362300000000005E-4</v>
+        <v>1.59542E-3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -4864,7 +4864,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>5.4790999999999998E-4</v>
+        <v>1.5843999999999999E-3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -4872,7 +4872,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>5.4228999999999996E-4</v>
+        <v>1.5738799999999999E-3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -4880,7 +4880,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>5.3677399999999995E-4</v>
+        <v>1.56342E-3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -4888,7 +4888,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>5.3135200000000002E-4</v>
+        <v>1.5534500000000001E-3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -4896,7 +4896,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>5.1163200000000004E-4</v>
+        <v>1.4995500000000001E-3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -4904,7 +4904,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>5.0626999999999996E-4</v>
+        <v>1.48971E-3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -4912,7 +4912,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>5.0101300000000002E-4</v>
+        <v>1.47992E-3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -4920,7 +4920,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>4.9584900000000003E-4</v>
+        <v>1.47062E-3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -4928,7 +4928,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>4.9078800000000003E-4</v>
+        <v>1.46138E-3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -4936,7 +4936,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>4.7219500000000001E-4</v>
+        <v>1.41055E-3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -4944,7 +4944,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>4.6719600000000002E-4</v>
+        <v>1.4014400000000001E-3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -4952,7 +4952,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>4.6229000000000002E-4</v>
+        <v>1.3928199999999999E-3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -4960,7 +4960,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>4.5748799999999998E-4</v>
+        <v>1.38426E-3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
@@ -4968,7 +4968,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>4.4006500000000001E-4</v>
+        <v>1.3364200000000001E-3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
@@ -4976,7 +4976,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>4.3532400000000001E-4</v>
+        <v>1.32799E-3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
@@ -4984,7 +4984,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>4.3067700000000002E-4</v>
+        <v>1.3200499999999999E-3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -4992,7 +4992,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>4.2613299999999998E-4</v>
+        <v>1.3121599999999999E-3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
@@ -5000,7 +5000,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>4.2168300000000001E-4</v>
+        <v>1.30477E-3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
@@ -5008,7 +5008,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>4.0539800000000001E-4</v>
+        <v>1.2595600000000001E-3</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -5016,7 +5016,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>4.0100900000000002E-4</v>
+        <v>1.2523E-3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
@@ -5024,7 +5024,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3.9672299999999998E-4</v>
+        <v>1.2450899999999999E-3</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
@@ -5032,7 +5032,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>3.92531E-4</v>
+        <v>1.2383699999999999E-3</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
@@ -5040,7 +5040,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>3.9082500000000003E-4</v>
+        <v>1.23515E-3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -5048,7 +5048,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>3.8913199999999999E-4</v>
+        <v>1.2321999999999999E-3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
@@ -5056,7 +5056,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>3.7398999999999999E-4</v>
+        <v>1.1898900000000001E-3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
@@ -5064,7 +5064,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>3.6985300000000001E-4</v>
+        <v>1.1832800000000001E-3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
@@ -5072,7 +5072,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>3.68165E-4</v>
+        <v>1.18009E-3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
@@ -5080,7 +5080,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>3.6648900000000001E-4</v>
+        <v>1.17717E-3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
@@ -5088,7 +5088,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>3.6483400000000002E-4</v>
+        <v>1.1740800000000001E-3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
@@ -5096,7 +5096,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>3.6078599999999998E-4</v>
+        <v>1.16771E-3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
@@ -5104,7 +5104,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>3.59145E-4</v>
+        <v>1.1646600000000001E-3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
@@ -5112,7 +5112,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>3.57516E-4</v>
+        <v>1.16187E-3</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
@@ -5120,7 +5120,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>3.5356500000000002E-4</v>
+        <v>1.1555199999999999E-3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
@@ -5128,7 +5128,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>3.51949E-4</v>
+        <v>1.15277E-3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
@@ -5136,7 +5136,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>3.50355E-4</v>
+        <v>1.14985E-3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
@@ -5144,7 +5144,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>3.4877399999999999E-4</v>
+        <v>1.14719E-3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
@@ -5152,7 +5152,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>3.4491099999999999E-4</v>
+        <v>1.14108E-3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
@@ -5160,7 +5160,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>3.3079300000000002E-4</v>
+        <v>1.10144E-3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
@@ -5168,7 +5168,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>3.2921600000000001E-4</v>
+        <v>1.09855E-3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -5176,7 +5176,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>3.27652E-4</v>
+        <v>1.09593E-3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
@@ -5184,7 +5184,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>3.23844E-4</v>
+        <v>1.08993E-3</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -5192,7 +5192,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>3.2229399999999999E-4</v>
+        <v>1.08734E-3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
@@ -5200,7 +5200,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>3.2076400000000002E-4</v>
+        <v>1.0845900000000001E-3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
@@ -5208,7 +5208,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>3.17044E-4</v>
+        <v>1.07905E-3</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
@@ -5216,7 +5216,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>3.1552899999999999E-4</v>
+        <v>1.0763299999999999E-3</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
@@ -5224,7 +5224,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>3.14025E-4</v>
+        <v>1.07387E-3</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
@@ -5232,7 +5232,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>3.1254299999999998E-4</v>
+        <v>1.0712499999999999E-3</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
@@ -5240,7 +5240,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>3.08912E-4</v>
+        <v>1.06595E-3</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
@@ -5248,7 +5248,7 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>3.0744399999999998E-4</v>
+        <v>1.06336E-3</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
@@ -5256,7 +5256,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>3.0598799999999998E-4</v>
+        <v>1.0610299999999999E-3</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
@@ -5264,7 +5264,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>2.9292599999999999E-4</v>
+        <v>1.0237200000000001E-3</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
@@ -5272,7 +5272,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>2.8935000000000001E-4</v>
+        <v>1.01852E-3</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
@@ -5280,7 +5280,7 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>2.8789899999999999E-4</v>
+        <v>1.0159699999999999E-3</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
@@ -5288,7 +5288,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>2.8645999999999999E-4</v>
+        <v>1.0136800000000001E-3</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
@@ -5296,7 +5296,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>2.85042E-4</v>
+        <v>1.01121E-3</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
@@ -5304,7 +5304,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>2.8155500000000001E-4</v>
+        <v>1.0062599999999999E-3</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
@@ -5312,7 +5312,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>2.8015100000000002E-4</v>
+        <v>1.00383E-3</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
@@ -5320,7 +5320,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2.7876000000000002E-4</v>
+        <v>1.0016700000000001E-3</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
@@ -5328,7 +5328,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>2.7536900000000003E-4</v>
+        <v>9.9674300000000002E-4</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
@@ -5336,7 +5336,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>2.7399100000000001E-4</v>
+        <v>9.94621E-4</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
@@ -5344,7 +5344,7 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>2.7263500000000002E-4</v>
+        <v>9.9232500000000006E-4</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
@@ -5352,7 +5352,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>2.7128999999999999E-4</v>
+        <v>9.9029900000000004E-4</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
@@ -5360,7 +5360,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>2.67989E-4</v>
+        <v>9.8560399999999995E-4</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
@@ -5368,7 +5368,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>2.5595000000000001E-4</v>
+        <v>9.5096199999999997E-4</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
@@ -5376,7 +5376,7 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>2.5461100000000002E-4</v>
+        <v>9.4870000000000002E-4</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
@@ -5384,7 +5384,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>2.53284E-4</v>
+        <v>9.4670799999999999E-4</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
@@ -5392,7 +5392,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>2.5003699999999999E-4</v>
+        <v>9.4211999999999996E-4</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
@@ -5400,7 +5400,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>2.4872400000000003E-4</v>
+        <v>9.4016300000000004E-4</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -5408,7 +5408,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>2.4743200000000001E-4</v>
+        <v>9.3803300000000001E-4</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -5416,7 +5416,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>2.4615200000000002E-4</v>
+        <v>9.3617099999999996E-4</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -5424,7 +5424,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>2.4299400000000001E-4</v>
+        <v>9.3181899999999996E-4</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -5432,7 +5432,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>2.41728E-4</v>
+        <v>9.2999300000000005E-4</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -5440,7 +5440,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>2.4048400000000001E-4</v>
+        <v>9.2799400000000002E-4</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -5448,7 +5448,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>2.3741300000000001E-4</v>
+        <v>9.2411100000000003E-4</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -5456,7 +5456,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>2.3618200000000001E-4</v>
+        <v>9.2214800000000002E-4</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -5464,7 +5464,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>2.3496300000000001E-4</v>
+        <v>9.20453E-4</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -5472,7 +5472,7 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>2.23981E-4</v>
+        <v>8.8813399999999995E-4</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -5480,7 +5480,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>2.2096600000000001E-4</v>
+        <v>8.8435800000000002E-4</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -5488,7 +5488,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>2.1975200000000001E-4</v>
+        <v>8.8242799999999999E-4</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -5496,7 +5496,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>2.1855099999999999E-4</v>
+        <v>8.8076699999999996E-4</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -5504,7 +5504,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>2.17412E-4</v>
+        <v>8.7945099999999995E-4</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -5512,7 +5512,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>2.1448499999999999E-4</v>
+        <v>8.7590699999999999E-4</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -5520,7 +5520,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>2.13358E-4</v>
+        <v>8.7461799999999997E-4</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -5528,7 +5528,7 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>2.1235899999999999E-4</v>
+        <v>8.7279600000000001E-4</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
@@ -5536,7 +5536,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>2.0968500000000001E-4</v>
+        <v>8.6922599999999996E-4</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
@@ -5544,7 +5544,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>2.0871E-4</v>
+        <v>8.6746999999999996E-4</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
@@ -5552,7 +5552,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>2.0775500000000001E-4</v>
+        <v>8.6577500000000005E-4</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
@@ -5560,7 +5560,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>2.0682200000000001E-4</v>
+        <v>8.6414100000000002E-4</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
@@ -5568,7 +5568,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>2.0425799999999999E-4</v>
+        <v>8.6087700000000002E-4</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
@@ -5576,7 +5576,7 @@
         <v>197</v>
       </c>
       <c r="B198">
-        <v>2.0334800000000001E-4</v>
+        <v>8.5930900000000005E-4</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
@@ -5584,7 +5584,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>1.93592E-4</v>
+        <v>8.2952899999999997E-4</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
@@ -5592,7 +5592,7 @@
         <v>199</v>
       </c>
       <c r="B200">
-        <v>1.9269900000000001E-4</v>
+        <v>8.2800300000000001E-4</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
@@ -5600,7 +5600,7 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>1.9021500000000001E-4</v>
+        <v>8.2493099999999999E-4</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
@@ -5608,7 +5608,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1.89345E-4</v>
+        <v>8.2346999999999997E-4</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
@@ -5616,7 +5616,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>1.8849599999999999E-4</v>
+        <v>8.2207099999999996E-4</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
@@ -5624,7 +5624,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>1.8766799999999999E-4</v>
+        <v>8.2073400000000005E-4</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
@@ -5632,7 +5632,7 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>1.8529500000000001E-4</v>
+        <v>8.1796699999999996E-4</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
@@ -5640,7 +5640,7 @@
         <v>205</v>
       </c>
       <c r="B206">
-        <v>1.8448999999999999E-4</v>
+        <v>8.1669499999999999E-4</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
@@ -5648,7 +5648,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>1.8370600000000001E-4</v>
+        <v>8.1548500000000002E-4</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
@@ -5656,7 +5656,7 @@
         <v>207</v>
       </c>
       <c r="B208">
-        <v>1.8144100000000001E-4</v>
+        <v>8.13019E-4</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
@@ -5664,7 +5664,7 @@
         <v>208</v>
       </c>
       <c r="B209">
-        <v>1.8068000000000001E-4</v>
+        <v>8.1187499999999999E-4</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
@@ -5672,7 +5672,7 @@
         <v>209</v>
       </c>
       <c r="B210">
-        <v>1.79941E-4</v>
+        <v>8.1079199999999996E-4</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
@@ -5680,7 +5680,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>1.7136000000000001E-4</v>
+        <v>7.8398699999999999E-4</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
@@ -5688,7 +5688,7 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>1.6917599999999999E-4</v>
+        <v>7.8171399999999998E-4</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
@@ -5696,7 +5696,7 @@
         <v>212</v>
       </c>
       <c r="B213">
-        <v>1.68455E-4</v>
+        <v>7.8067700000000002E-4</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
@@ -5704,7 +5704,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>1.6775500000000001E-4</v>
+        <v>7.7970100000000005E-4</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
@@ -5712,7 +5712,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>1.6707700000000001E-4</v>
+        <v>7.7878699999999997E-4</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
@@ -5720,7 +5720,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>1.6500299999999999E-4</v>
+        <v>7.7681899999999999E-4</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
@@ -5728,7 +5728,7 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>1.6434699999999999E-4</v>
+        <v>7.7596999999999996E-4</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
@@ -5736,7 +5736,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>1.6371300000000001E-4</v>
+        <v>7.7518300000000004E-4</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
@@ -5744,7 +5744,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>1.6174700000000001E-4</v>
+        <v>7.7351600000000003E-4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
@@ -5752,7 +5752,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>1.6113600000000001E-4</v>
+        <v>7.7279499999999995E-4</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
@@ -5760,7 +5760,7 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>1.6054599999999999E-4</v>
+        <v>7.7213499999999997E-4</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
@@ -5768,7 +5768,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>1.59977E-4</v>
+        <v>7.7153599999999997E-4</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
@@ -5776,7 +5776,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>1.5812199999999999E-4</v>
+        <v>7.7017399999999999E-4</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
@@ -5784,7 +5784,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>1.5757600000000001E-4</v>
+        <v>7.6964199999999996E-4</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
@@ -5792,7 +5792,7 @@
         <v>224</v>
       </c>
       <c r="B225">
-        <v>1.5013799999999999E-4</v>
+        <v>7.4568499999999995E-4</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
@@ -5800,7 +5800,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>1.4960900000000001E-4</v>
+        <v>7.4519400000000002E-4</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
@@ -5808,7 +5808,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>1.5530399999999999E-4</v>
+        <v>7.68109E-4</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
@@ -5816,7 +5816,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>1.4783400000000001E-4</v>
+        <v>7.4402500000000005E-4</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
@@ -5824,7 +5824,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>1.5480299999999999E-4</v>
+        <v>7.6770400000000002E-4</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
@@ -5832,7 +5832,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>1.4732800000000001E-4</v>
+        <v>7.4359899999999995E-4</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
@@ -5840,7 +5840,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>1.54322E-4</v>
+        <v>7.6736000000000003E-4</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
@@ -5848,7 +5848,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>1.4684299999999999E-4</v>
+        <v>7.4323499999999997E-4</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
@@ -5856,7 +5856,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>1.5386299999999999E-4</v>
+        <v>7.6707700000000001E-4</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
@@ -5864,7 +5864,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>1.46379E-4</v>
+        <v>7.4293299999999998E-4</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
@@ -5872,7 +5872,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>1.5222599999999999E-4</v>
+        <v>7.6632100000000004E-4</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
@@ -5880,7 +5880,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>1.4471500000000001E-4</v>
+        <v>7.4206900000000004E-4</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
@@ -5888,7 +5888,7 @@
         <v>236</v>
       </c>
       <c r="B237">
-        <v>1.5179000000000001E-4</v>
+        <v>7.6610399999999998E-4</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
@@ -5896,7 +5896,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
@@ -5904,7 +5904,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
@@ -5912,7 +5912,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
@@ -5920,7 +5920,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
@@ -5928,7 +5928,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
@@ -5936,7 +5936,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
@@ -5944,7 +5944,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
@@ -5952,7 +5952,7 @@
         <v>244</v>
       </c>
       <c r="B245">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
@@ -5960,7 +5960,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
@@ -5968,7 +5968,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
@@ -5976,7 +5976,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
@@ -5984,7 +5984,7 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
@@ -5992,7 +5992,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
@@ -6000,7 +6000,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
@@ -6008,7 +6008,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
@@ -6016,7 +6016,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
@@ -6024,7 +6024,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
@@ -6032,7 +6032,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
@@ -6040,7 +6040,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
@@ -6048,7 +6048,7 @@
         <v>256</v>
       </c>
       <c r="B257">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
@@ -6056,7 +6056,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
@@ -6072,7 +6072,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
@@ -6080,7 +6080,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
@@ -6088,7 +6088,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
@@ -6096,7 +6096,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
@@ -6104,7 +6104,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
@@ -6112,7 +6112,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
@@ -6120,7 +6120,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
@@ -6128,7 +6128,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
@@ -6136,7 +6136,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
@@ -6144,7 +6144,7 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
@@ -6152,7 +6152,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
@@ -6160,7 +6160,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
@@ -6168,7 +6168,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
@@ -6176,7 +6176,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
@@ -6184,7 +6184,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
@@ -6192,7 +6192,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
@@ -6200,7 +6200,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
@@ -6208,7 +6208,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
@@ -6216,7 +6216,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
@@ -6224,7 +6224,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
@@ -6232,7 +6232,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
@@ -6240,7 +6240,7 @@
         <v>280</v>
       </c>
       <c r="B281">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
@@ -6248,7 +6248,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
@@ -6256,7 +6256,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
@@ -6264,7 +6264,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
@@ -6272,7 +6272,7 @@
         <v>284</v>
       </c>
       <c r="B285">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
@@ -6280,7 +6280,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
@@ -6288,7 +6288,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
@@ -6296,7 +6296,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
@@ -6304,7 +6304,7 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
@@ -6312,7 +6312,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
@@ -6320,7 +6320,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
@@ -6328,7 +6328,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
@@ -6336,7 +6336,7 @@
         <v>292</v>
       </c>
       <c r="B293">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
@@ -6344,7 +6344,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
@@ -6352,7 +6352,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
@@ -6360,7 +6360,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
@@ -6368,7 +6368,7 @@
         <v>296</v>
       </c>
       <c r="B297">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
@@ -6376,7 +6376,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
@@ -6384,7 +6384,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
@@ -6392,7 +6392,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
@@ -6400,7 +6400,7 @@
         <v>300</v>
       </c>
       <c r="B301">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
@@ -6408,7 +6408,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
@@ -6416,7 +6416,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
@@ -6424,7 +6424,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
@@ -6432,7 +6432,7 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
@@ -6440,7 +6440,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
@@ -6448,7 +6448,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
@@ -6456,7 +6456,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
@@ -6464,7 +6464,7 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
@@ -6472,7 +6472,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
@@ -6480,7 +6480,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
@@ -6488,7 +6488,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
@@ -6496,7 +6496,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
@@ -6504,7 +6504,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
@@ -6512,7 +6512,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
@@ -6520,7 +6520,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
@@ -6528,7 +6528,7 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
@@ -6536,7 +6536,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
@@ -6544,7 +6544,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
@@ -6552,7 +6552,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
@@ -6560,7 +6560,7 @@
         <v>320</v>
       </c>
       <c r="B321">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
@@ -6568,7 +6568,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
@@ -6576,7 +6576,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
@@ -6584,7 +6584,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
@@ -6592,7 +6592,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
@@ -6600,7 +6600,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
@@ -6608,7 +6608,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
@@ -6616,7 +6616,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
@@ -6624,7 +6624,7 @@
         <v>328</v>
       </c>
       <c r="B329">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
@@ -6632,7 +6632,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
@@ -6640,7 +6640,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
@@ -6648,7 +6648,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
@@ -6656,7 +6656,7 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
@@ -6664,7 +6664,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
@@ -6672,7 +6672,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
@@ -6680,7 +6680,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
@@ -6688,7 +6688,7 @@
         <v>336</v>
       </c>
       <c r="B337">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
@@ -6696,7 +6696,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
@@ -6704,7 +6704,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
@@ -6712,7 +6712,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
@@ -6720,7 +6720,7 @@
         <v>340</v>
       </c>
       <c r="B341">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
@@ -6728,7 +6728,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
@@ -6736,7 +6736,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
@@ -6744,7 +6744,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
@@ -6752,7 +6752,7 @@
         <v>344</v>
       </c>
       <c r="B345">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
@@ -6760,7 +6760,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
@@ -6768,7 +6768,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
@@ -6776,7 +6776,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
@@ -6784,7 +6784,7 @@
         <v>348</v>
       </c>
       <c r="B349">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
@@ -6792,7 +6792,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
@@ -6800,7 +6800,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
@@ -6808,7 +6808,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
@@ -6816,7 +6816,7 @@
         <v>352</v>
       </c>
       <c r="B353">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
@@ -6824,7 +6824,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
@@ -6832,7 +6832,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
@@ -6840,7 +6840,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
@@ -6848,7 +6848,7 @@
         <v>356</v>
       </c>
       <c r="B357">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
@@ -6856,7 +6856,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
@@ -6864,7 +6864,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
@@ -6872,7 +6872,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
@@ -6880,7 +6880,7 @@
         <v>360</v>
       </c>
       <c r="B361">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
@@ -6888,7 +6888,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
@@ -6896,7 +6896,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
@@ -6904,7 +6904,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
@@ -6912,7 +6912,7 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
@@ -6920,7 +6920,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
@@ -6928,7 +6928,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
@@ -6936,7 +6936,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
@@ -6944,7 +6944,7 @@
         <v>368</v>
       </c>
       <c r="B369">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
@@ -6952,7 +6952,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
@@ -6960,7 +6960,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
@@ -6968,7 +6968,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
@@ -6976,7 +6976,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
@@ -6984,7 +6984,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
@@ -6992,7 +6992,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
@@ -7000,7 +7000,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
@@ -7008,7 +7008,7 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
@@ -7016,7 +7016,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
@@ -7024,7 +7024,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
@@ -7032,7 +7032,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
@@ -7040,7 +7040,7 @@
         <v>380</v>
       </c>
       <c r="B381">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
@@ -7048,7 +7048,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
@@ -7056,7 +7056,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
@@ -7064,7 +7064,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
@@ -7072,7 +7072,7 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
@@ -7080,7 +7080,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
@@ -7088,7 +7088,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
@@ -7096,7 +7096,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
@@ -7104,7 +7104,7 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
@@ -7112,7 +7112,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
@@ -7120,7 +7120,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
@@ -7128,7 +7128,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
@@ -7136,7 +7136,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
@@ -7144,7 +7144,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
@@ -7152,7 +7152,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
@@ -7160,7 +7160,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
@@ -7168,7 +7168,7 @@
         <v>396</v>
       </c>
       <c r="B397">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
@@ -7176,7 +7176,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
@@ -7184,7 +7184,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
@@ -7192,7 +7192,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
@@ -7200,7 +7200,7 @@
         <v>400</v>
       </c>
       <c r="B401">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
@@ -7208,7 +7208,7 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
@@ -7216,7 +7216,7 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
@@ -7224,7 +7224,7 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
@@ -7232,7 +7232,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
@@ -7240,7 +7240,7 @@
         <v>405</v>
       </c>
       <c r="B406">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
@@ -7248,7 +7248,7 @@
         <v>406</v>
       </c>
       <c r="B407">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
@@ -7256,7 +7256,7 @@
         <v>407</v>
       </c>
       <c r="B408">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
@@ -7264,7 +7264,7 @@
         <v>408</v>
       </c>
       <c r="B409">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
@@ -7272,7 +7272,7 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
@@ -7280,7 +7280,7 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
@@ -7288,7 +7288,7 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
@@ -7296,7 +7296,7 @@
         <v>412</v>
       </c>
       <c r="B413">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
@@ -7304,7 +7304,7 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
@@ -7312,7 +7312,7 @@
         <v>414</v>
       </c>
       <c r="B415">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
@@ -7320,7 +7320,7 @@
         <v>415</v>
       </c>
       <c r="B416">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
@@ -7328,7 +7328,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
@@ -7336,7 +7336,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
@@ -7344,7 +7344,7 @@
         <v>418</v>
       </c>
       <c r="B419">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
@@ -7352,7 +7352,7 @@
         <v>419</v>
       </c>
       <c r="B420">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
@@ -7360,7 +7360,7 @@
         <v>420</v>
       </c>
       <c r="B421">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
@@ -7368,7 +7368,7 @@
         <v>421</v>
       </c>
       <c r="B422">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
@@ -7376,7 +7376,7 @@
         <v>422</v>
       </c>
       <c r="B423">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
@@ -7384,7 +7384,7 @@
         <v>423</v>
       </c>
       <c r="B424">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
@@ -7392,7 +7392,7 @@
         <v>424</v>
       </c>
       <c r="B425">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
@@ -7400,7 +7400,7 @@
         <v>425</v>
       </c>
       <c r="B426">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
@@ -7408,7 +7408,7 @@
         <v>426</v>
       </c>
       <c r="B427">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
@@ -7416,7 +7416,7 @@
         <v>427</v>
       </c>
       <c r="B428">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
@@ -7424,7 +7424,7 @@
         <v>428</v>
       </c>
       <c r="B429">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
@@ -7432,7 +7432,7 @@
         <v>429</v>
       </c>
       <c r="B430">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
@@ -7440,7 +7440,7 @@
         <v>430</v>
       </c>
       <c r="B431">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
@@ -7448,7 +7448,7 @@
         <v>431</v>
       </c>
       <c r="B432">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
@@ -7456,7 +7456,7 @@
         <v>432</v>
       </c>
       <c r="B433">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
@@ -7464,7 +7464,7 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
@@ -7472,7 +7472,7 @@
         <v>434</v>
       </c>
       <c r="B435">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
@@ -7480,7 +7480,7 @@
         <v>435</v>
       </c>
       <c r="B436">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
@@ -7488,7 +7488,7 @@
         <v>436</v>
       </c>
       <c r="B437">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
@@ -7496,7 +7496,7 @@
         <v>437</v>
       </c>
       <c r="B438">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
@@ -7504,7 +7504,7 @@
         <v>438</v>
       </c>
       <c r="B439">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
@@ -7512,7 +7512,7 @@
         <v>439</v>
       </c>
       <c r="B440">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
@@ -7520,7 +7520,7 @@
         <v>440</v>
       </c>
       <c r="B441">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
@@ -7528,7 +7528,7 @@
         <v>441</v>
       </c>
       <c r="B442">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
@@ -7536,7 +7536,7 @@
         <v>442</v>
       </c>
       <c r="B443">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
@@ -7544,7 +7544,7 @@
         <v>443</v>
       </c>
       <c r="B444">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
@@ -7552,7 +7552,7 @@
         <v>444</v>
       </c>
       <c r="B445">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
@@ -7560,7 +7560,7 @@
         <v>445</v>
       </c>
       <c r="B446">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
@@ -7568,7 +7568,7 @@
         <v>446</v>
       </c>
       <c r="B447">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
@@ -7576,7 +7576,7 @@
         <v>447</v>
       </c>
       <c r="B448">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
@@ -7584,7 +7584,7 @@
         <v>448</v>
       </c>
       <c r="B449">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
@@ -7592,7 +7592,7 @@
         <v>449</v>
       </c>
       <c r="B450">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
@@ -7600,7 +7600,7 @@
         <v>450</v>
       </c>
       <c r="B451">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
@@ -7608,7 +7608,7 @@
         <v>451</v>
       </c>
       <c r="B452">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
@@ -7616,7 +7616,7 @@
         <v>452</v>
       </c>
       <c r="B453">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
@@ -7624,7 +7624,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
@@ -7632,7 +7632,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
@@ -7640,7 +7640,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
@@ -7648,7 +7648,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
@@ -7656,7 +7656,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
@@ -7664,7 +7664,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
@@ -7672,7 +7672,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
@@ -7680,7 +7680,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
@@ -7688,7 +7688,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
@@ -7696,7 +7696,7 @@
         <v>462</v>
       </c>
       <c r="B463">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
@@ -7704,7 +7704,7 @@
         <v>463</v>
       </c>
       <c r="B464">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
@@ -7712,7 +7712,7 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
@@ -7720,7 +7720,7 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
@@ -7728,7 +7728,7 @@
         <v>466</v>
       </c>
       <c r="B467">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
@@ -7736,7 +7736,7 @@
         <v>467</v>
       </c>
       <c r="B468">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
@@ -7744,7 +7744,7 @@
         <v>468</v>
       </c>
       <c r="B469">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
@@ -7752,7 +7752,7 @@
         <v>469</v>
       </c>
       <c r="B470">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
@@ -7760,7 +7760,7 @@
         <v>470</v>
       </c>
       <c r="B471">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
@@ -7768,7 +7768,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
@@ -7776,7 +7776,7 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
@@ -7784,7 +7784,7 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
@@ -7792,7 +7792,7 @@
         <v>474</v>
       </c>
       <c r="B475">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
@@ -7800,7 +7800,7 @@
         <v>475</v>
       </c>
       <c r="B476">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
@@ -7808,7 +7808,7 @@
         <v>476</v>
       </c>
       <c r="B477">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
@@ -7816,7 +7816,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
@@ -7824,7 +7824,7 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
@@ -7832,7 +7832,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
@@ -7840,7 +7840,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
@@ -7848,7 +7848,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
@@ -7856,7 +7856,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
@@ -7864,7 +7864,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
@@ -7872,7 +7872,7 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
@@ -7880,7 +7880,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
@@ -7888,7 +7888,7 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
@@ -7896,7 +7896,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
@@ -7904,7 +7904,7 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
@@ -7912,7 +7912,7 @@
         <v>489</v>
       </c>
       <c r="B490">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
@@ -7920,7 +7920,7 @@
         <v>490</v>
       </c>
       <c r="B491">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
@@ -7928,7 +7928,7 @@
         <v>491</v>
       </c>
       <c r="B492">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
@@ -7936,7 +7936,7 @@
         <v>492</v>
       </c>
       <c r="B493">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
@@ -7944,7 +7944,7 @@
         <v>493</v>
       </c>
       <c r="B494">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
@@ -7952,7 +7952,7 @@
         <v>494</v>
       </c>
       <c r="B495">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
@@ -7960,7 +7960,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
@@ -7968,7 +7968,7 @@
         <v>496</v>
       </c>
       <c r="B497">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
@@ -7976,7 +7976,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
@@ -7984,7 +7984,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
@@ -7992,7 +7992,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>1.4427400000000001E-4</v>
+        <v>7.4183199999999999E-4</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
@@ -8000,7 +8000,7 @@
         <v>500</v>
       </c>
       <c r="B501">
-        <v>1.5137500000000001E-4</v>
+        <v>7.6594900000000004E-4</v>
       </c>
     </row>
   </sheetData>
